--- a/CNVkit_tests/CollectingCNVSamples/CNVSamples.xlsx
+++ b/CNVkit_tests/CollectingCNVSamples/CNVSamples.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HAEMATONC/SHARED/Diagnostics/MOLECULAR DIAGNOSTICS/TRANSLATIONAL RESEARCH/9999_Data4Debbie/Sabri/CNVkit_tests/CollectingCNVSamples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjamal/Documents/Work/2.Scripts/geneCN/CNVkit_tests/CollectingCNVSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1440" windowWidth="40980" windowHeight="24260" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6280" yWindow="3040" windowWidth="40980" windowHeight="24260" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SamplesValidationData" sheetId="2" r:id="rId2"/>
     <sheet name="PAEDSamplesMissingData" sheetId="3" r:id="rId3"/>
-    <sheet name="RMH200 CNA alterations" sheetId="4" r:id="rId4"/>
+    <sheet name="RMH200 CNA run1" sheetId="6" r:id="rId4"/>
+    <sheet name="RMH200 CAN run2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="408">
   <si>
     <t xml:space="preserve">Negatives </t>
   </si>
@@ -1146,13 +1147,121 @@
   </si>
   <si>
     <t>L210</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Mdx number</t>
+  </si>
+  <si>
+    <t>Secondary ID</t>
+  </si>
+  <si>
+    <t>Path number</t>
+  </si>
+  <si>
+    <t>MDS case with Hyperdiploid karyotype</t>
+  </si>
+  <si>
+    <t>18/02561</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>51,XX,+10,+12,+13,+19,+21[10]</t>
+  </si>
+  <si>
+    <t>ALL Cases with Hyperdiploid karyotype</t>
+  </si>
+  <si>
+    <t>18/06274</t>
+  </si>
+  <si>
+    <t>GUSCIORA</t>
+  </si>
+  <si>
+    <t>46,XX[11] low mitotic index and normal karyotype</t>
+  </si>
+  <si>
+    <t>FISH found gains of chromosomes +6, +10, +14, +14, +17, +18, +21, +21</t>
+  </si>
+  <si>
+    <t>18/06260</t>
+  </si>
+  <si>
+    <t>IGLESIAS-GARCIA</t>
+  </si>
+  <si>
+    <t>54,XY,+X,+4,+6,+8,+14,+17,+21,+21[9]/46,XY[1]</t>
+  </si>
+  <si>
+    <t>Myeloid cases with +8</t>
+  </si>
+  <si>
+    <t>18/08101</t>
+  </si>
+  <si>
+    <t>DEVANI</t>
+  </si>
+  <si>
+    <t>47,XY,+8[3]/46,XY[10] - 23% of cells have +8</t>
+  </si>
+  <si>
+    <t>18/03379</t>
+  </si>
+  <si>
+    <t>EDMONDS</t>
+  </si>
+  <si>
+    <t>+8 in 100% of cells</t>
+  </si>
+  <si>
+    <t>18/06405</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>+8 in 50% of cells</t>
+  </si>
+  <si>
+    <t>17/13252</t>
+  </si>
+  <si>
+    <t>FARRUGIA</t>
+  </si>
+  <si>
+    <t>+8 in 17% of cells</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>WHITAKER</t>
+  </si>
+  <si>
+    <t>47,XX,+8[2]/51~53,XX,+X,+4,+6,+8,+8,+8,+10,+?18[cp5]/46,XX[15] - cp means composite karyotype ie some variation (see page 92 of ICSN for explanation)</t>
+  </si>
+  <si>
+    <t>HARFLEET</t>
+  </si>
+  <si>
+    <t>53~54,XY,+X,+5,der(8)t(1;8)(q11;q24),t(9;22)(q34;q11.2),+14,+16,+18,+18,+21,+mar[cp8]/46,XY[2] Also Ph+ve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOFFELL </t>
+  </si>
+  <si>
+    <t>47,XY,+8[12] - All cells have +8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1185,6 +1294,13 @@
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1262,7 +1378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1296,8 +1412,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1305,8 +1458,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1342,14 +1497,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1934,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG107"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5561,13 +5729,14 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I1" sqref="I1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -6356,10 +6525,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6385,58 +6554,55 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>356</v>
+      <c r="A2" s="26" t="s">
+        <v>359</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>361</v>
+        <v>368</v>
+      </c>
+      <c r="D3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>365</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>366</v>
+      <c r="A5" s="25" t="s">
+        <v>371</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>367</v>
+        <v>38</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="D5" t="s">
-        <v>369</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>370</v>
+      <c r="A6" s="25">
+        <v>644060</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>38</v>
@@ -6446,8 +6612,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>371</v>
+      <c r="A7" s="25">
+        <v>2027047</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>38</v>
@@ -6456,26 +6622,262 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <v>644060</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>2027047</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>38</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="31">
+        <v>2042496</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" s="31">
+        <v>2047387</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="31">
+        <v>2047368</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="31">
+        <v>2049738</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="31">
+        <v>2043708</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="31">
+        <v>2047546</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="31">
+        <v>2038382</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" s="28">
+        <v>2039557</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="30">
+        <v>2034598</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="30">
+        <v>2051478</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="14" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="C14" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="C15" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
